--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pomc-Mc4r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pomc-Mc4r.xlsx
@@ -525,16 +525,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.280658475871907</v>
+        <v>0.3304176666666667</v>
       </c>
       <c r="H2">
-        <v>0.280658475871907</v>
+        <v>0.9912529999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.312360738569303</v>
+        <v>0.3318626666666666</v>
       </c>
       <c r="N2">
-        <v>0.312360738569303</v>
+        <v>0.9955879999999999</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.08766668880908378</v>
+        <v>0.1096532879737778</v>
       </c>
       <c r="R2">
-        <v>0.08766668880908378</v>
+        <v>0.9868795917639999</v>
       </c>
       <c r="S2">
         <v>1</v>
